--- a/Ex/4/mod4.xlsx
+++ b/Ex/4/mod4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmdq/_projects/digitalenachhaltigkeit/Ex/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07376D2-2D2D-534C-93E3-F16F5A19A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D503A43-66EB-8B4B-8A1D-6537170E2C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19600" xr2:uid="{77077ECF-DF52-C74B-B59D-23451C6FED77}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="18">
   <si>
     <t>Matrikel-Nr</t>
   </si>
@@ -468,11 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F777421-9B8E-FD48-A9A9-0B6E9713788D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,9 +510,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -537,9 +536,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -564,8 +563,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="2">
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -589,9 +588,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -615,9 +614,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -641,9 +640,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -667,9 +666,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -694,8 +693,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+      <c r="A9" s="2">
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -719,9 +718,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -745,9 +744,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -771,9 +770,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -797,9 +796,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -823,9 +822,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -849,9 +848,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -875,9 +874,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -902,8 +901,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
+      <c r="A17" s="2">
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -927,9 +926,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -953,9 +952,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -979,9 +978,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -1005,9 +1004,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -1031,9 +1030,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1057,9 +1056,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -1083,9 +1082,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -1109,9 +1108,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1135,9 +1134,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -1161,9 +1160,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
@@ -1187,9 +1186,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -1213,9 +1212,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -1239,9 +1238,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
@@ -1265,9 +1264,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
@@ -1291,9 +1290,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>10</v>
@@ -1317,9 +1316,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
@@ -1344,8 +1343,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
+      <c r="A34" s="2">
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
@@ -1369,9 +1368,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
@@ -1395,9 +1394,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>10</v>
@@ -1421,9 +1420,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
@@ -1447,9 +1446,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>10</v>
@@ -1473,9 +1472,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>10</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>10</v>
@@ -1499,9 +1498,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>10</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
@@ -1525,9 +1524,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>10</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
@@ -1552,8 +1551,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>10</v>
+      <c r="A42" s="2">
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>10</v>
@@ -1577,9 +1576,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>10</v>
@@ -1603,9 +1602,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>10</v>
@@ -1629,9 +1628,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>10</v>
@@ -1655,9 +1654,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>10</v>
@@ -1681,9 +1680,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -1707,9 +1706,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
@@ -1733,9 +1732,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>10</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -1759,9 +1758,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>10</v>
@@ -1785,9 +1784,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>10</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -1811,9 +1810,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -1837,9 +1836,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>10</v>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -1863,9 +1862,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
@@ -1889,9 +1888,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>10</v>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
@@ -1915,9 +1914,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>10</v>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>10</v>
@@ -1941,9 +1940,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
@@ -1968,8 +1967,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
+      <c r="A58" s="2">
+        <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>10</v>
@@ -1993,9 +1992,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>10</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>10</v>
@@ -2019,9 +2018,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>10</v>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>10</v>
@@ -2046,8 +2045,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>10</v>
+      <c r="A61" s="2">
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
@@ -2071,9 +2070,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>10</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>10</v>
@@ -2097,9 +2096,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>10</v>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>10</v>
@@ -2123,9 +2122,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>10</v>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>10</v>
@@ -2149,9 +2148,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>10</v>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
@@ -2175,9 +2174,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>10</v>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
@@ -2201,9 +2200,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>10</v>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
@@ -2227,9 +2226,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>10</v>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>10</v>
@@ -2253,9 +2252,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>10</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -2279,9 +2278,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>10</v>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>10</v>
@@ -2306,8 +2305,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>10</v>
+      <c r="A71" s="2">
+        <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
@@ -2331,9 +2330,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>10</v>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -2357,9 +2356,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>10</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
@@ -2383,9 +2382,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>10</v>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>10</v>
@@ -2409,9 +2408,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>10</v>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -2435,9 +2434,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>10</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>10</v>
@@ -2461,9 +2460,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
@@ -2487,9 +2486,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>10</v>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>10</v>
@@ -2513,9 +2512,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>10</v>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>10</v>
@@ -2539,9 +2538,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>10</v>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>2</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>10</v>
@@ -2565,9 +2564,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>10</v>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>3</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
@@ -2591,9 +2590,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>10</v>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>10</v>
@@ -2617,9 +2616,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>10</v>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>10</v>
@@ -2643,9 +2642,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>10</v>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>10</v>
@@ -2669,9 +2668,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>10</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>1</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
@@ -2695,9 +2694,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>10</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
@@ -2721,9 +2720,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>10</v>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -2747,9 +2746,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>10</v>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>10</v>
@@ -2773,9 +2772,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>10</v>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>10</v>
@@ -2799,9 +2798,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>10</v>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>10</v>
@@ -2825,9 +2824,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>10</v>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
@@ -2851,9 +2850,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>10</v>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>10</v>
@@ -2877,9 +2876,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>10</v>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
@@ -2903,9 +2902,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>10</v>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>10</v>
@@ -2929,9 +2928,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>10</v>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>10</v>
@@ -2955,9 +2954,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>10</v>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>10</v>
@@ -2981,9 +2980,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>10</v>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
@@ -3007,9 +3006,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>10</v>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>10</v>
@@ -3033,9 +3032,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>10</v>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>10</v>
@@ -3059,9 +3058,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>10</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
@@ -3085,9 +3084,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>10</v>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>9</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>10</v>
@@ -3137,18 +3136,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{5F777421-9B8E-FD48-A9A9-0B6E9713788D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="weiblich"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="20*"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H101" xr:uid="{5F777421-9B8E-FD48-A9A9-0B6E9713788D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>